--- a/biology/Médecine/Adrien_Philippe_(chirurgien)/Adrien_Philippe_(chirurgien).xlsx
+++ b/biology/Médecine/Adrien_Philippe_(chirurgien)/Adrien_Philippe_(chirurgien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Pierre Nicolas Philippe est un médecin français né le 4 mars 1802 à Marfaux et mort le 6 juillet 1856 à Reims.
 Il fut chirurgien en chef à l’Hôtel-Dieu de Reims, professeur à l’École de médecine et conseiller municipal de la ville de Reims.
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Pierre Nicolas Philippe est né le 4 mars 1801 à Marfaux dans la (Marne).
 Il épouse Marie Benjamine Adèle Louis.
 Il est reçu docteur en 1824.
 Il fut Chirurgien en chef de l’Hôtel-Dieu de Reims, professeur à l’École de médecine.
 Il a été également conseillé municipal de la ville de Reims.
-Il décède le 6 juillet 1858 à Reims et est inhumé au Cimetière du Nord de Reims[1].
+Il décède le 6 juillet 1858 à Reims et est inhumé au Cimetière du Nord de Reims.
 </t>
         </is>
       </c>
@@ -548,13 +562,15 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire philosophique, politique et religieuse de la barbe, chez les principaux peuples de la terre, depuis les temps les plus reculés jusqu'à nos jours, Adrien Phillippe, 1845
 Royer-Collard, sa vie publique, sa vie privée, sa famille, par Adrien Phillippe, Pierre Paul Royer-Collard,1857,
-Histoire des apothicaires chez les principaux peuples du monde, suivie du tableau de l'état actuel de la pharmacie en Europe, en Asie, en Afrique et en Amérique, par Adrien Phillippe[2],
-Histoire de la saignée et des révolutions qu'elle a subies depuis les temps les plus reculés jusqu'à nos jours,par Adrien Phillippe, 1855[3],
-Précis historique sur l'ancienne communauté des maîtres en chirurgie de la ville de Reims, par Adrien Phillippe, 1853[4].</t>
+Histoire des apothicaires chez les principaux peuples du monde, suivie du tableau de l'état actuel de la pharmacie en Europe, en Asie, en Afrique et en Amérique, par Adrien Phillippe,
+Histoire de la saignée et des révolutions qu'elle a subies depuis les temps les plus reculés jusqu'à nos jours,par Adrien Phillippe, 1855,
+Précis historique sur l'ancienne communauté des maîtres en chirurgie de la ville de Reims, par Adrien Phillippe, 1853.</t>
         </is>
       </c>
     </row>
@@ -582,7 +598,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En hommage au docteur Adrien Pierre Nicolas Philippe, une rue de Reims porte le nom de « Rue Philippe ».
 Chevalier de la Légion d’honneur</t>
